--- a/Code/Results/Cases/Case_7_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.509423558113269</v>
+        <v>1.084864889296625</v>
       </c>
       <c r="C2">
-        <v>0.6087026929620833</v>
+        <v>0.1745373173267097</v>
       </c>
       <c r="D2">
-        <v>0.02571100292870554</v>
+        <v>0.05276068729272509</v>
       </c>
       <c r="E2">
-        <v>1.4336090946273</v>
+        <v>1.38020280366581</v>
       </c>
       <c r="F2">
-        <v>2.07482013708406</v>
+        <v>0.5531333974988115</v>
       </c>
       <c r="G2">
-        <v>0.0007725076971390022</v>
+        <v>0.0007982021855030199</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6985620708277125</v>
+        <v>1.162693615464434</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.655636978570357</v>
+        <v>1.623237674381755</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.160177952174308</v>
+        <v>0.942436174439365</v>
       </c>
       <c r="C3">
-        <v>0.52640357765506</v>
+        <v>0.1571699383914762</v>
       </c>
       <c r="D3">
-        <v>0.02610927372506922</v>
+        <v>0.04838531158045356</v>
       </c>
       <c r="E3">
-        <v>1.222405006461983</v>
+        <v>1.18557885052968</v>
       </c>
       <c r="F3">
-        <v>1.837977096977681</v>
+        <v>0.5201009649832571</v>
       </c>
       <c r="G3">
-        <v>0.0007814666487885716</v>
+        <v>0.0008026211070787477</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6014485854319034</v>
+        <v>1.014027905177613</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.472330875095409</v>
+        <v>1.564775394264984</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.949212374642144</v>
+        <v>0.855283307674199</v>
       </c>
       <c r="C4">
-        <v>0.4766291648786591</v>
+        <v>0.1465123214809267</v>
       </c>
       <c r="D4">
-        <v>0.02643921406175664</v>
+        <v>0.04568632400547301</v>
       </c>
       <c r="E4">
-        <v>1.096529312703595</v>
+        <v>1.068214181625009</v>
       </c>
       <c r="F4">
-        <v>1.69783638412764</v>
+        <v>0.5011469455835638</v>
       </c>
       <c r="G4">
-        <v>0.0007870769204087751</v>
+        <v>0.0008054122542903069</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5427635209366883</v>
+        <v>0.9229641883673878</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.364146768254585</v>
+        <v>1.533247791581687</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.863971932430076</v>
+        <v>0.8198240279260176</v>
       </c>
       <c r="C5">
-        <v>0.4564997218367353</v>
+        <v>0.142168645475877</v>
       </c>
       <c r="D5">
-        <v>0.02659264749479107</v>
+        <v>0.04458318248619264</v>
       </c>
       <c r="E5">
-        <v>1.046031639099127</v>
+        <v>1.020843059746767</v>
       </c>
       <c r="F5">
-        <v>1.641893763446603</v>
+        <v>0.4937348881771726</v>
       </c>
       <c r="G5">
-        <v>0.0007893932660105504</v>
+        <v>0.0008065698636133935</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5190454227431687</v>
+        <v>0.8858905128361414</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.321025529425114</v>
+        <v>1.521430034476936</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.849857986086903</v>
+        <v>0.8139389080361639</v>
       </c>
       <c r="C6">
-        <v>0.453165556662924</v>
+        <v>0.1414472856229594</v>
       </c>
       <c r="D6">
-        <v>0.02661920432770515</v>
+        <v>0.04439980464952242</v>
       </c>
       <c r="E6">
-        <v>1.0376904319658</v>
+        <v>1.01300241490145</v>
       </c>
       <c r="F6">
-        <v>1.632670514481617</v>
+        <v>0.4925223373664593</v>
       </c>
       <c r="G6">
-        <v>0.0007897797830668624</v>
+        <v>0.0008067633204281672</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5151178162539622</v>
+        <v>0.8797360679157009</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.31391990258102</v>
+        <v>1.519527993602622</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.948060016228254</v>
+        <v>0.8548048878904524</v>
       </c>
       <c r="C7">
-        <v>0.476357113750737</v>
+        <v>0.1464537463047009</v>
       </c>
       <c r="D7">
-        <v>0.02644120953782547</v>
+        <v>0.04567146011680023</v>
       </c>
       <c r="E7">
-        <v>1.095845249733372</v>
+        <v>1.067573574318573</v>
       </c>
       <c r="F7">
-        <v>1.69707740440488</v>
+        <v>0.5010457494712099</v>
       </c>
       <c r="G7">
-        <v>0.000787108034242018</v>
+        <v>0.0008054277837290627</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5424429050829147</v>
+        <v>0.9224640803440707</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.36356148058789</v>
+        <v>1.533084330118754</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.388191539850425</v>
+        <v>1.035681563899118</v>
       </c>
       <c r="C8">
-        <v>0.5801454241028239</v>
+        <v>0.1685464563534111</v>
       </c>
       <c r="D8">
-        <v>0.02582899631278224</v>
+        <v>0.05125455772100906</v>
       </c>
       <c r="E8">
-        <v>1.359894199149025</v>
+        <v>1.312602385242286</v>
       </c>
       <c r="F8">
-        <v>1.991957231957088</v>
+        <v>0.5414544463694</v>
       </c>
       <c r="G8">
-        <v>0.000775575680126428</v>
+        <v>0.0007997100343979896</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.664855748922605</v>
+        <v>1.111376480182145</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.591441955599677</v>
+        <v>1.602130579588561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.286266121371057</v>
+        <v>1.393693530532232</v>
       </c>
       <c r="C9">
-        <v>0.7915867502255196</v>
+        <v>0.2120252379078806</v>
       </c>
       <c r="D9">
-        <v>0.0254383860239038</v>
+        <v>0.06211176566511512</v>
       </c>
       <c r="E9">
-        <v>1.916283722895358</v>
+        <v>1.814093448847785</v>
       </c>
       <c r="F9">
-        <v>2.620477144310485</v>
+        <v>0.632307366357459</v>
       </c>
       <c r="G9">
-        <v>0.0007536952750276672</v>
+        <v>0.000789086277440898</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9144935342037286</v>
+        <v>1.484516688440152</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079829826347847</v>
+        <v>1.775525659297671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.97953005343345</v>
+        <v>1.660194218570012</v>
       </c>
       <c r="C10">
-        <v>0.9548931343342701</v>
+        <v>0.2442315180339563</v>
       </c>
       <c r="D10">
-        <v>0.02586870619446557</v>
+        <v>0.07004612263003196</v>
       </c>
       <c r="E10">
-        <v>2.362721925752595</v>
+        <v>2.201657763054101</v>
       </c>
       <c r="F10">
-        <v>3.12647502140419</v>
+        <v>0.7077606679056458</v>
       </c>
       <c r="G10">
-        <v>0.0007378491547466651</v>
+        <v>0.0007815951321659562</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.107191818777025</v>
+        <v>1.761776901085483</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.475141186724528</v>
+        <v>1.931130613589431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.305508357606129</v>
+        <v>1.782544828258381</v>
       </c>
       <c r="C11">
-        <v>1.031787965570828</v>
+        <v>0.2589824676506964</v>
       </c>
       <c r="D11">
-        <v>0.02628493354967532</v>
+        <v>0.073649862624805</v>
       </c>
       <c r="E11">
-        <v>2.578055819009251</v>
+        <v>2.383748713273235</v>
       </c>
       <c r="F11">
-        <v>3.369995050231211</v>
+        <v>0.7443765545297083</v>
       </c>
       <c r="G11">
-        <v>0.0007306300316351096</v>
+        <v>0.000778244382442472</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.197822374055079</v>
+        <v>1.888953822318001</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.665976394458582</v>
+        <v>2.009293230442836</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.43081425193634</v>
+        <v>1.829069426007038</v>
       </c>
       <c r="C12">
-        <v>1.061371319083861</v>
+        <v>0.2645866219699116</v>
       </c>
       <c r="D12">
-        <v>0.02648120568359857</v>
+        <v>0.07501399865092395</v>
       </c>
       <c r="E12">
-        <v>2.661791625447819</v>
+        <v>2.453689979972765</v>
       </c>
       <c r="F12">
-        <v>3.464509551415432</v>
+        <v>0.7586086296426799</v>
       </c>
       <c r="G12">
-        <v>0.0007278886281102404</v>
+        <v>0.0007769827227179551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.232666557047239</v>
+        <v>1.937297105570536</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.740138899692866</v>
+        <v>2.040068216248613</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403738334920831</v>
+        <v>1.819040384875819</v>
       </c>
       <c r="C13">
-        <v>1.054977702584466</v>
+        <v>0.263378786849259</v>
       </c>
       <c r="D13">
-        <v>0.02643708779078224</v>
+        <v>0.07472022581311677</v>
       </c>
       <c r="E13">
-        <v>2.643652113178092</v>
+        <v>2.438580269414558</v>
       </c>
       <c r="F13">
-        <v>3.444045079468509</v>
+        <v>0.7555265737887424</v>
       </c>
       <c r="G13">
-        <v>0.0007284794908820209</v>
+        <v>0.0007772541406935185</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.225137168163798</v>
+        <v>1.926876759285392</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.724076626563189</v>
+        <v>2.033385978627336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.315777796544694</v>
+        <v>1.786368368708196</v>
       </c>
       <c r="C14">
-        <v>1.034211905926128</v>
+        <v>0.2594431343615611</v>
       </c>
       <c r="D14">
-        <v>0.02630026074780289</v>
+        <v>0.07376209960683155</v>
       </c>
       <c r="E14">
-        <v>2.58489802475961</v>
+        <v>2.389482072214903</v>
       </c>
       <c r="F14">
-        <v>3.377722305548929</v>
+        <v>0.7455398677409164</v>
       </c>
       <c r="G14">
-        <v>0.0007304046881424497</v>
+        <v>0.0007781404468119079</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.200677893681174</v>
+        <v>1.892927160459493</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.672037744071176</v>
+        <v>2.011800823624128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.262153472881607</v>
+        <v>1.766381973859666</v>
       </c>
       <c r="C15">
-        <v>1.021555791258777</v>
+        <v>0.2570349385175348</v>
       </c>
       <c r="D15">
-        <v>0.0262217176295465</v>
+        <v>0.07317516078915531</v>
       </c>
       <c r="E15">
-        <v>2.549209607225634</v>
+        <v>2.359541551392425</v>
       </c>
       <c r="F15">
-        <v>3.33740958133626</v>
+        <v>0.7394715991564027</v>
       </c>
       <c r="G15">
-        <v>0.0007315827243019011</v>
+        <v>0.0007786842406545364</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.185767369145353</v>
+        <v>1.872157075172396</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.640419881300787</v>
+        <v>1.998736141376526</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.958467686467031</v>
+        <v>1.652223505401111</v>
       </c>
       <c r="C16">
-        <v>0.9499276303743045</v>
+        <v>0.2432698464164673</v>
       </c>
       <c r="D16">
-        <v>0.02584650093014673</v>
+        <v>0.06981052021014023</v>
       </c>
       <c r="E16">
-        <v>2.348930623131338</v>
+        <v>2.189886948736756</v>
       </c>
       <c r="F16">
-        <v>3.110859782803857</v>
+        <v>0.7054169211046428</v>
       </c>
       <c r="G16">
-        <v>0.0007383202280797069</v>
+        <v>0.0007818151754286842</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.101336577037571</v>
+        <v>1.753489474867251</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.462916708369022</v>
+        <v>1.926180575757286</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.775105967647448</v>
+        <v>1.582499339129129</v>
       </c>
       <c r="C17">
-        <v>0.9067123726576369</v>
+        <v>0.2348536889194435</v>
       </c>
       <c r="D17">
-        <v>0.02567726772623047</v>
+        <v>0.06774517309115424</v>
       </c>
       <c r="E17">
-        <v>2.229481735712454</v>
+        <v>2.087395670396617</v>
       </c>
       <c r="F17">
-        <v>2.975544738635136</v>
+        <v>0.6851375881629309</v>
       </c>
       <c r="G17">
-        <v>0.000742446722266088</v>
+        <v>0.0007837498229116042</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.05036556945592</v>
+        <v>1.680982192048958</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.357049303367404</v>
+        <v>1.883638276843357</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.67061612710728</v>
+        <v>1.542498969676302</v>
       </c>
       <c r="C18">
-        <v>0.8820950655626518</v>
+        <v>0.2300221068051513</v>
       </c>
       <c r="D18">
-        <v>0.02560018603121605</v>
+        <v>0.06655669008795684</v>
       </c>
       <c r="E18">
-        <v>2.161899890895867</v>
+        <v>2.028979601531788</v>
       </c>
       <c r="F18">
-        <v>2.898944179539882</v>
+        <v>0.6736867578417929</v>
       </c>
       <c r="G18">
-        <v>0.0007448195996376324</v>
+        <v>0.0007848680125983226</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.0213212860494</v>
+        <v>1.639374560776332</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.297171217778924</v>
+        <v>1.859855870002718</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635395765047633</v>
+        <v>1.528972311721077</v>
       </c>
       <c r="C19">
-        <v>0.8737986399671627</v>
+        <v>0.2283876795577413</v>
       </c>
       <c r="D19">
-        <v>0.02557737900239587</v>
+        <v>0.06615418744416246</v>
       </c>
       <c r="E19">
-        <v>2.139198858883773</v>
+        <v>2.009288260063826</v>
       </c>
       <c r="F19">
-        <v>2.873209155555912</v>
+        <v>0.6698452731305053</v>
       </c>
       <c r="G19">
-        <v>0.0007456230856358158</v>
+        <v>0.0007852475742220913</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.011531589055707</v>
+        <v>1.625302573563658</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.277063027900581</v>
+        <v>1.85191817511128</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.794521969218351</v>
+        <v>1.58991069868668</v>
       </c>
       <c r="C20">
-        <v>0.9112873804804451</v>
+        <v>0.2357486275274852</v>
       </c>
       <c r="D20">
-        <v>0.02569314087503827</v>
+        <v>0.0679650877509701</v>
       </c>
       <c r="E20">
-        <v>2.242078317413757</v>
+        <v>2.098249691780239</v>
       </c>
       <c r="F20">
-        <v>2.989819516146241</v>
+        <v>0.6872740257567642</v>
       </c>
       <c r="G20">
-        <v>0.0007420075500853551</v>
+        <v>0.0007835433211159277</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.055762630910976</v>
+        <v>1.688690484672946</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.368212024773214</v>
+        <v>1.888095094946408</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.341560296335217</v>
+        <v>1.795959418126785</v>
       </c>
       <c r="C21">
-        <v>1.040297895679714</v>
+        <v>0.2605986012838173</v>
       </c>
       <c r="D21">
-        <v>0.02633933772356301</v>
+        <v>0.07404353620047743</v>
       </c>
       <c r="E21">
-        <v>2.602092057370797</v>
+        <v>2.403875266135373</v>
       </c>
       <c r="F21">
-        <v>3.397137129919258</v>
+        <v>0.7484629483662957</v>
       </c>
       <c r="G21">
-        <v>0.0007298394743927572</v>
+        <v>0.0007778799303787883</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.207847077043866</v>
+        <v>1.902893701393481</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.687268522498215</v>
+        <v>2.018107996514772</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.710159597653615</v>
+        <v>1.93176698888459</v>
       </c>
       <c r="C22">
-        <v>1.127379765091206</v>
+        <v>0.2769482443378024</v>
       </c>
       <c r="D22">
-        <v>0.02699144947668586</v>
+        <v>0.07801326904603201</v>
       </c>
       <c r="E22">
-        <v>2.850444891403143</v>
+        <v>2.609461880382426</v>
       </c>
       <c r="F22">
-        <v>3.676974385123486</v>
+        <v>0.7906091471009375</v>
       </c>
       <c r="G22">
-        <v>0.0007218383888200736</v>
+        <v>0.0007742199813976085</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.31035902425667</v>
+        <v>2.043979183055569</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.907042482042883</v>
+        <v>2.109998953251448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.512287654244119</v>
+        <v>1.85916781938252</v>
       </c>
       <c r="C23">
-        <v>1.080614635296058</v>
+        <v>0.2682107759165575</v>
       </c>
       <c r="D23">
-        <v>0.02661964318484422</v>
+        <v>0.07589470756947492</v>
       </c>
       <c r="E23">
-        <v>2.716529011306818</v>
+        <v>2.499145005767204</v>
       </c>
       <c r="F23">
-        <v>3.526227005558042</v>
+        <v>0.767904515426892</v>
       </c>
       <c r="G23">
-        <v>0.0007261155239819142</v>
+        <v>0.0007761699352312266</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.255324112143057</v>
+        <v>1.96856746643499</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.788594829042268</v>
+        <v>2.060280462283885</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.785741131488805</v>
+        <v>1.586559760729273</v>
       </c>
       <c r="C24">
-        <v>0.9092183167160499</v>
+        <v>0.23534400433293</v>
       </c>
       <c r="D24">
-        <v>0.02568590216960587</v>
+        <v>0.06786566774187008</v>
       </c>
       <c r="E24">
-        <v>2.236380036193069</v>
+        <v>2.093341019339135</v>
       </c>
       <c r="F24">
-        <v>2.983362198395668</v>
+        <v>0.6863074971012537</v>
       </c>
       <c r="G24">
-        <v>0.0007422060977846976</v>
+        <v>0.0007836366620262472</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.053321817827523</v>
+        <v>1.685205325801064</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.363162308669729</v>
+        <v>1.886078071341075</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.038427654282202</v>
+        <v>1.29634514920528</v>
       </c>
       <c r="C25">
-        <v>0.7332457101788634</v>
+        <v>0.2002301701204345</v>
       </c>
       <c r="D25">
-        <v>0.0254367686776753</v>
+        <v>0.05918310029740326</v>
       </c>
       <c r="E25">
-        <v>1.760328118287134</v>
+        <v>1.675569746440118</v>
       </c>
       <c r="F25">
-        <v>2.443785788836095</v>
+        <v>0.6063267406573303</v>
       </c>
       <c r="G25">
-        <v>0.0007595564097915812</v>
+        <v>0.0007919016509966906</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8456098992759991</v>
+        <v>1.383140560591528</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.942211103975694</v>
+        <v>1.724055482314526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.084864889296625</v>
+        <v>1.065651280190849</v>
       </c>
       <c r="C2">
-        <v>0.1745373173267097</v>
+        <v>0.1941523150921824</v>
       </c>
       <c r="D2">
-        <v>0.05276068729272509</v>
+        <v>0.07913946241690439</v>
       </c>
       <c r="E2">
-        <v>1.38020280366581</v>
+        <v>1.32128514236436</v>
       </c>
       <c r="F2">
-        <v>0.5531333974988115</v>
+        <v>0.3424314522456982</v>
       </c>
       <c r="G2">
-        <v>0.0007982021855030199</v>
+        <v>0.2385646431705055</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.007690184739671146</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2294018578722614</v>
       </c>
       <c r="K2">
-        <v>1.162693615464434</v>
+        <v>0.1813207019581782</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.194664151005043</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.623237674381755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9351250679336545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.942436174439365</v>
+        <v>0.9322511709611945</v>
       </c>
       <c r="C3">
-        <v>0.1571699383914762</v>
+        <v>0.173319956509232</v>
       </c>
       <c r="D3">
-        <v>0.04838531158045356</v>
+        <v>0.0700806185874896</v>
       </c>
       <c r="E3">
-        <v>1.18557885052968</v>
+        <v>1.152041168427516</v>
       </c>
       <c r="F3">
-        <v>0.5201009649832571</v>
+        <v>0.3253812359925092</v>
       </c>
       <c r="G3">
-        <v>0.0008026211070787477</v>
+        <v>0.2300622301829023</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005320839145385281</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2300999215841841</v>
       </c>
       <c r="K3">
-        <v>1.014027905177613</v>
+        <v>0.186574727338396</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.048660056137948</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.564775394264984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9182676828757508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.855283307674199</v>
+        <v>0.850215357036376</v>
       </c>
       <c r="C4">
-        <v>0.1465123214809267</v>
+        <v>0.1605172837742828</v>
       </c>
       <c r="D4">
-        <v>0.04568632400547301</v>
+        <v>0.06449541208178289</v>
       </c>
       <c r="E4">
-        <v>1.068214181625009</v>
+        <v>1.048278378397413</v>
       </c>
       <c r="F4">
-        <v>0.5011469455835638</v>
+        <v>0.3155161101859036</v>
       </c>
       <c r="G4">
-        <v>0.0008054122542903069</v>
+        <v>0.2253637104199768</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004041004556040173</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2308650650617849</v>
       </c>
       <c r="K4">
-        <v>0.9229641883673878</v>
+        <v>0.1902155793515412</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9588642761298161</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.533247791581687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9097212814001523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8198240279260176</v>
+        <v>0.8167471793750281</v>
       </c>
       <c r="C5">
-        <v>0.142168645475877</v>
+        <v>0.155296305693355</v>
       </c>
       <c r="D5">
-        <v>0.04458318248619264</v>
+        <v>0.06221332093805643</v>
       </c>
       <c r="E5">
-        <v>1.020843059746767</v>
+        <v>1.006017310206005</v>
       </c>
       <c r="F5">
-        <v>0.4937348881771726</v>
+        <v>0.3116399744270808</v>
       </c>
       <c r="G5">
-        <v>0.0008065698636133935</v>
+        <v>0.2235731774227219</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003560153043359326</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.231258355573253</v>
       </c>
       <c r="K5">
-        <v>0.8858905128361414</v>
+        <v>0.1917995148067142</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9222280518779939</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.521430034476936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9066705658374161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8139389080361639</v>
+        <v>0.8111873611713065</v>
       </c>
       <c r="C6">
-        <v>0.1414472856229594</v>
+        <v>0.1544291129168585</v>
       </c>
       <c r="D6">
-        <v>0.04439980464952242</v>
+        <v>0.06183400676994921</v>
       </c>
       <c r="E6">
-        <v>1.01300241490145</v>
+        <v>0.9990008462211364</v>
       </c>
       <c r="F6">
-        <v>0.4925223373664593</v>
+        <v>0.3110048177799314</v>
       </c>
       <c r="G6">
-        <v>0.0008067633204281672</v>
+        <v>0.2232831567436548</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.00348267127261348</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2313284935604685</v>
       </c>
       <c r="K6">
-        <v>0.8797360679157009</v>
+        <v>0.1920684656081075</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9161418179172074</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.519527993602622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9061894727345958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8548048878904524</v>
+        <v>0.8497641544339558</v>
       </c>
       <c r="C7">
-        <v>0.1464537463047009</v>
+        <v>0.1604468882919576</v>
       </c>
       <c r="D7">
-        <v>0.04567146011680023</v>
+        <v>0.06446465995315975</v>
       </c>
       <c r="E7">
-        <v>1.067573574318573</v>
+        <v>1.047708357341406</v>
       </c>
       <c r="F7">
-        <v>0.5010457494712099</v>
+        <v>0.3154632624215097</v>
       </c>
       <c r="G7">
-        <v>0.0008054277837290627</v>
+        <v>0.2253390691681219</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004034359148033628</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2308700432228079</v>
       </c>
       <c r="K7">
-        <v>0.9224640803440707</v>
+        <v>0.1902365401694297</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9583703722504708</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.533084330118754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9096784171568686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.035681563899118</v>
+        <v>1.019677737264146</v>
       </c>
       <c r="C8">
-        <v>0.1685464563534111</v>
+        <v>0.1869711487953509</v>
       </c>
       <c r="D8">
-        <v>0.05125455772100906</v>
+        <v>0.07602057730814948</v>
       </c>
       <c r="E8">
-        <v>1.312602385242286</v>
+        <v>1.262888321832406</v>
       </c>
       <c r="F8">
-        <v>0.5414544463694</v>
+        <v>0.3364224048673421</v>
       </c>
       <c r="G8">
-        <v>0.0007997100343979896</v>
+        <v>0.2355203028875863</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006834900155962387</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2295707777929579</v>
       </c>
       <c r="K8">
-        <v>1.111376480182145</v>
+        <v>0.1830436952969112</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.144348810548053</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.602130579588561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9289249017231924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.393693530532232</v>
+        <v>1.352163922054757</v>
       </c>
       <c r="C9">
-        <v>0.2120252379078806</v>
+        <v>0.2389394656041191</v>
       </c>
       <c r="D9">
-        <v>0.06211176566511512</v>
+        <v>0.09851359588326147</v>
       </c>
       <c r="E9">
-        <v>1.814093448847785</v>
+        <v>1.686826109182974</v>
       </c>
       <c r="F9">
-        <v>0.632307366357459</v>
+        <v>0.3826844345235045</v>
       </c>
       <c r="G9">
-        <v>0.000789086277440898</v>
+        <v>0.2599627312249879</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01386931012520376</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2298407338657569</v>
       </c>
       <c r="K9">
-        <v>1.484516688440152</v>
+        <v>0.1724203780371809</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.508196883898478</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.775525659297671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9820022193389661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.660194218570012</v>
+        <v>1.596742040985731</v>
       </c>
       <c r="C10">
-        <v>0.2442315180339563</v>
+        <v>0.2759090838488163</v>
       </c>
       <c r="D10">
-        <v>0.07004612263003196</v>
+        <v>0.1162324617959456</v>
       </c>
       <c r="E10">
-        <v>2.201657763054101</v>
+        <v>1.899948922963219</v>
       </c>
       <c r="F10">
-        <v>0.7077606679056458</v>
+        <v>0.4142011276801583</v>
       </c>
       <c r="G10">
-        <v>0.0007815951321659562</v>
+        <v>0.2753674092962726</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01963967060738359</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2291345315535978</v>
       </c>
       <c r="K10">
-        <v>1.761776901085483</v>
+        <v>0.1644480996868154</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.773851418825956</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.931130613589431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.013649146452337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.782544828258381</v>
+        <v>1.710843233087303</v>
       </c>
       <c r="C11">
-        <v>0.2589824676506964</v>
+        <v>0.2819362971477801</v>
       </c>
       <c r="D11">
-        <v>0.073649862624805</v>
+        <v>0.13588293226438</v>
       </c>
       <c r="E11">
-        <v>2.383748713273235</v>
+        <v>1.220956779593052</v>
       </c>
       <c r="F11">
-        <v>0.7443765545297083</v>
+        <v>0.3769868832229193</v>
       </c>
       <c r="G11">
-        <v>0.000778244382442472</v>
+        <v>0.2349953199671475</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03543276832092346</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2054141612663969</v>
       </c>
       <c r="K11">
-        <v>1.888953822318001</v>
+        <v>0.1404358026138723</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.880725925775039</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.009293230442836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8785330542209238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.829069426007038</v>
+        <v>1.756003963256148</v>
       </c>
       <c r="C12">
-        <v>0.2645866219699116</v>
+        <v>0.2793211274912437</v>
       </c>
       <c r="D12">
-        <v>0.07501399865092395</v>
+        <v>0.1494642766398329</v>
       </c>
       <c r="E12">
-        <v>2.453689979972765</v>
+        <v>0.7336369717109079</v>
       </c>
       <c r="F12">
-        <v>0.7586086296426799</v>
+        <v>0.3399157167656881</v>
       </c>
       <c r="G12">
-        <v>0.0007769827227179551</v>
+        <v>0.1999360880250052</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07178227632334</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1863440195346584</v>
       </c>
       <c r="K12">
-        <v>1.937297105570536</v>
+        <v>0.1233214271950143</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.915140148094565</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.040068216248613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7643086585962067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.819040384875819</v>
+        <v>1.750303131104346</v>
       </c>
       <c r="C13">
-        <v>0.263378786849259</v>
+        <v>0.2699259328320665</v>
       </c>
       <c r="D13">
-        <v>0.07472022581311677</v>
+        <v>0.1589983796415879</v>
       </c>
       <c r="E13">
-        <v>2.438580269414558</v>
+        <v>0.3655866991745711</v>
       </c>
       <c r="F13">
-        <v>0.7555265737887424</v>
+        <v>0.300716069700762</v>
       </c>
       <c r="G13">
-        <v>0.0007772541406935185</v>
+        <v>0.1668130218957629</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.12531864177204</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1696280501185115</v>
       </c>
       <c r="K13">
-        <v>1.926876759285392</v>
+        <v>0.1102956435278664</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.89547340947226</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.033385978627336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6590357983481852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.786368368708196</v>
+        <v>1.723312516022474</v>
       </c>
       <c r="C14">
-        <v>0.2594431343615611</v>
+        <v>0.2603554812348818</v>
       </c>
       <c r="D14">
-        <v>0.07376209960683155</v>
+        <v>0.1638375641503842</v>
       </c>
       <c r="E14">
-        <v>2.389482072214903</v>
+        <v>0.1801707065377869</v>
       </c>
       <c r="F14">
-        <v>0.7455398677409164</v>
+        <v>0.2726951652493597</v>
       </c>
       <c r="G14">
-        <v>0.0007781404468119079</v>
+        <v>0.1449833939014837</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1732525382525125</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1591717133409105</v>
       </c>
       <c r="K14">
-        <v>1.892927160459493</v>
+        <v>0.1032494710260394</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.857328102885361</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.011800823624128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.590790119472075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.766381973859666</v>
+        <v>1.705806123137705</v>
       </c>
       <c r="C15">
-        <v>0.2570349385175348</v>
+        <v>0.2565826894962981</v>
       </c>
       <c r="D15">
-        <v>0.07317516078915531</v>
+        <v>0.1640298317359878</v>
       </c>
       <c r="E15">
-        <v>2.359541551392425</v>
+        <v>0.1440187743379155</v>
       </c>
       <c r="F15">
-        <v>0.7394715991564027</v>
+        <v>0.2653227048600897</v>
       </c>
       <c r="G15">
-        <v>0.0007786842406545364</v>
+        <v>0.1398053148271075</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1852951500980282</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1570254659556056</v>
       </c>
       <c r="K15">
-        <v>1.872157075172396</v>
+        <v>0.1022005157420587</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.83647461793538</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.998736141376526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5752816748218379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.652223505401111</v>
+        <v>1.601283242373484</v>
       </c>
       <c r="C16">
-        <v>0.2432698464164673</v>
+        <v>0.2428413428169875</v>
       </c>
       <c r="D16">
-        <v>0.06981052021014023</v>
+        <v>0.1540464249213613</v>
       </c>
       <c r="E16">
-        <v>2.189886948736756</v>
+        <v>0.1410726513606946</v>
       </c>
       <c r="F16">
-        <v>0.7054169211046428</v>
+        <v>0.2598467459055982</v>
       </c>
       <c r="G16">
-        <v>0.0007818151754286842</v>
+        <v>0.1399369924183063</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1708181687809116</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1605331724918102</v>
       </c>
       <c r="K16">
-        <v>1.753489474867251</v>
+        <v>0.1077810321924382</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.726197035921757</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.926180575757286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5827157271558292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.582499339129129</v>
+        <v>1.535635068943776</v>
       </c>
       <c r="C17">
-        <v>0.2348536889194435</v>
+        <v>0.2373474088741006</v>
       </c>
       <c r="D17">
-        <v>0.06774517309115424</v>
+        <v>0.1438500443304633</v>
       </c>
       <c r="E17">
-        <v>2.087395670396617</v>
+        <v>0.2237856372171123</v>
       </c>
       <c r="F17">
-        <v>0.6851375881629309</v>
+        <v>0.2704904166843463</v>
       </c>
       <c r="G17">
-        <v>0.0007837498229116042</v>
+        <v>0.1514999612688896</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1323871099059346</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1687827530809543</v>
       </c>
       <c r="K17">
-        <v>1.680982192048958</v>
+        <v>0.1158155465428656</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.661996787090118</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.883638276843357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6243951285699296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.542498969676302</v>
+        <v>1.495997865937539</v>
       </c>
       <c r="C18">
-        <v>0.2300221068051513</v>
+        <v>0.2383867387973027</v>
       </c>
       <c r="D18">
-        <v>0.06655669008795684</v>
+        <v>0.132585322648012</v>
       </c>
       <c r="E18">
-        <v>2.028979601531788</v>
+        <v>0.4524216334755806</v>
       </c>
       <c r="F18">
-        <v>0.6736867578417929</v>
+        <v>0.2967647410457701</v>
       </c>
       <c r="G18">
-        <v>0.0007848680125983226</v>
+        <v>0.1753534429653527</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08012100117614551</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1824646505029506</v>
       </c>
       <c r="K18">
-        <v>1.639374560776332</v>
+        <v>0.1275704829589053</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.630134857037916</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.859855870002718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7035697124749021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.528972311721077</v>
+        <v>1.480375308845112</v>
       </c>
       <c r="C19">
-        <v>0.2283876795577413</v>
+        <v>0.2447851661158467</v>
       </c>
       <c r="D19">
-        <v>0.06615418744416246</v>
+        <v>0.1216308244432298</v>
       </c>
       <c r="E19">
-        <v>2.009288260063826</v>
+        <v>0.8788943409590928</v>
       </c>
       <c r="F19">
-        <v>0.6698452731305053</v>
+        <v>0.3349475508027595</v>
       </c>
       <c r="G19">
-        <v>0.0007852475742220913</v>
+        <v>0.209404898070801</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03701966868329265</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2002976762439985</v>
       </c>
       <c r="K19">
-        <v>1.625302573563658</v>
+        <v>0.142653900608849</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.626858677960172</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.85191817511128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8131180867779051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.58991069868668</v>
+        <v>1.532518364362517</v>
       </c>
       <c r="C20">
-        <v>0.2357486275274852</v>
+        <v>0.2661479223914398</v>
       </c>
       <c r="D20">
-        <v>0.0679650877509701</v>
+        <v>0.1116331022520853</v>
       </c>
       <c r="E20">
-        <v>2.098249691780239</v>
+        <v>1.839689621474889</v>
       </c>
       <c r="F20">
-        <v>0.6872740257567642</v>
+        <v>0.4054023060647935</v>
       </c>
       <c r="G20">
-        <v>0.0007835433211159277</v>
+        <v>0.2708463817247377</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0180023707324537</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2290604644435916</v>
       </c>
       <c r="K20">
-        <v>1.688690484672946</v>
+        <v>0.1662555913175829</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.704020718473629</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.888095094946408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.003788463083737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.795959418126785</v>
+        <v>1.719901993846577</v>
       </c>
       <c r="C21">
-        <v>0.2605986012838173</v>
+        <v>0.2964858959287824</v>
       </c>
       <c r="D21">
-        <v>0.07404353620047743</v>
+        <v>0.1232467330524969</v>
       </c>
       <c r="E21">
-        <v>2.403875266135373</v>
+        <v>2.159840967417892</v>
       </c>
       <c r="F21">
-        <v>0.7484629483662957</v>
+        <v>0.4404340145381553</v>
       </c>
       <c r="G21">
-        <v>0.0007778799303787883</v>
+        <v>0.2927550860650143</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0237445042711375</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2335846433848374</v>
       </c>
       <c r="K21">
-        <v>1.902893701393481</v>
+        <v>0.1649532936344968</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.910536927127765</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.018107996514772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.060069697980339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.93176698888459</v>
+        <v>1.842671166107863</v>
       </c>
       <c r="C22">
-        <v>0.2769482443378024</v>
+        <v>0.3157092679025482</v>
       </c>
       <c r="D22">
-        <v>0.07801326904603201</v>
+        <v>0.1314753262188049</v>
       </c>
       <c r="E22">
-        <v>2.609461880382426</v>
+        <v>2.318673910787041</v>
       </c>
       <c r="F22">
-        <v>0.7906091471009375</v>
+        <v>0.4610458494364451</v>
       </c>
       <c r="G22">
-        <v>0.0007742199813976085</v>
+        <v>0.304884140543308</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02748949078786644</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2355187247352148</v>
       </c>
       <c r="K22">
-        <v>2.043979183055569</v>
+        <v>0.1633199745608529</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.04484214478498</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.109998953251448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.09005910002017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.85916781938252</v>
+        <v>1.777128835031561</v>
       </c>
       <c r="C23">
-        <v>0.2682107759165575</v>
+        <v>0.3054459370474092</v>
       </c>
       <c r="D23">
-        <v>0.07589470756947492</v>
+        <v>0.1270840169559904</v>
       </c>
       <c r="E23">
-        <v>2.499145005767204</v>
+        <v>2.233822453412728</v>
       </c>
       <c r="F23">
-        <v>0.767904515426892</v>
+        <v>0.449963672861692</v>
       </c>
       <c r="G23">
-        <v>0.0007761699352312266</v>
+        <v>0.298339045955629</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02546321642538496</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2344463531919416</v>
       </c>
       <c r="K23">
-        <v>1.96856746643499</v>
+        <v>0.1641416641564284</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.973141993023745</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.060280462283885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.073817959767894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.586559760729273</v>
+        <v>1.529239842451432</v>
       </c>
       <c r="C24">
-        <v>0.23534400433293</v>
+        <v>0.266642454513601</v>
       </c>
       <c r="D24">
-        <v>0.06786566774187008</v>
+        <v>0.1104401573879557</v>
       </c>
       <c r="E24">
-        <v>2.093341019339135</v>
+        <v>1.914072683724015</v>
       </c>
       <c r="F24">
-        <v>0.6863074971012537</v>
+        <v>0.4097107490972149</v>
       </c>
       <c r="G24">
-        <v>0.0007836366620262472</v>
+        <v>0.2750631551319884</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0183661942021871</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2312395851194111</v>
       </c>
       <c r="K24">
-        <v>1.685205325801064</v>
+        <v>0.1683190676862019</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.701944168059214</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.886078071341075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.017291675473388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.29634514920528</v>
+        <v>1.262247688876414</v>
       </c>
       <c r="C25">
-        <v>0.2002301701204345</v>
+        <v>0.2248784330171247</v>
       </c>
       <c r="D25">
-        <v>0.05918310029740326</v>
+        <v>0.09244431101401318</v>
       </c>
       <c r="E25">
-        <v>1.675569746440118</v>
+        <v>1.571816737520422</v>
       </c>
       <c r="F25">
-        <v>0.6063267406573303</v>
+        <v>0.3695626437454962</v>
       </c>
       <c r="G25">
-        <v>0.0007919016509966906</v>
+        <v>0.2528222302526117</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01177879407177335</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2294445579960112</v>
       </c>
       <c r="K25">
-        <v>1.383140560591528</v>
+        <v>0.1748939750940828</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.409807498207243</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.724055482314526</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9658530127399558</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.065651280190849</v>
+        <v>1.054528454524132</v>
       </c>
       <c r="C2">
-        <v>0.1941523150921824</v>
+        <v>0.2078640815858392</v>
       </c>
       <c r="D2">
-        <v>0.07913946241690439</v>
+        <v>0.08172356839290984</v>
       </c>
       <c r="E2">
-        <v>1.32128514236436</v>
+        <v>1.320386687018797</v>
       </c>
       <c r="F2">
-        <v>0.3424314522456982</v>
+        <v>0.3298697941983306</v>
       </c>
       <c r="G2">
-        <v>0.2385646431705055</v>
+        <v>0.2093791627581751</v>
       </c>
       <c r="H2">
-        <v>0.007690184739671146</v>
+        <v>0.007598140273776199</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2294018578722614</v>
+        <v>0.2616279439560785</v>
       </c>
       <c r="K2">
-        <v>0.1813207019581782</v>
+        <v>0.1707720221980917</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1131765620553082</v>
       </c>
       <c r="M2">
-        <v>1.194664151005043</v>
+        <v>0.03036121254321955</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.208245991079934</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9351250679336545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8979043237732043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9322511709611945</v>
+        <v>0.9257597850130708</v>
       </c>
       <c r="C3">
-        <v>0.173319956509232</v>
+        <v>0.1815097782823614</v>
       </c>
       <c r="D3">
-        <v>0.0700806185874896</v>
+        <v>0.07188978117503808</v>
       </c>
       <c r="E3">
-        <v>1.152041168427516</v>
+        <v>1.151881635623909</v>
       </c>
       <c r="F3">
-        <v>0.3253812359925092</v>
+        <v>0.3153525581526111</v>
       </c>
       <c r="G3">
-        <v>0.2300622301829023</v>
+        <v>0.2032484326081629</v>
       </c>
       <c r="H3">
-        <v>0.005320839145385281</v>
+        <v>0.005306307658550002</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2300999215841841</v>
+        <v>0.2614925945993605</v>
       </c>
       <c r="K3">
-        <v>0.186574727338396</v>
+        <v>0.176769540762324</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1186851311854138</v>
       </c>
       <c r="M3">
-        <v>1.048660056137948</v>
+        <v>0.03034352559723619</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.058676262896512</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9182676828757508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8875298126335878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.850215357036376</v>
+        <v>0.8464606922902362</v>
       </c>
       <c r="C4">
-        <v>0.1605172837742828</v>
+        <v>0.1654182175781642</v>
       </c>
       <c r="D4">
-        <v>0.06449541208178289</v>
+        <v>0.06584256737842509</v>
       </c>
       <c r="E4">
-        <v>1.048278378397413</v>
+        <v>1.048536603120198</v>
       </c>
       <c r="F4">
-        <v>0.3155161101859036</v>
+        <v>0.3069279520533996</v>
       </c>
       <c r="G4">
-        <v>0.2253637104199768</v>
+        <v>0.1999801143035072</v>
       </c>
       <c r="H4">
-        <v>0.004041004556040173</v>
+        <v>0.004062433223634976</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2308650650617849</v>
+        <v>0.2615835620619222</v>
       </c>
       <c r="K4">
-        <v>0.1902155793515412</v>
+        <v>0.1807743120377339</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1223110500670099</v>
       </c>
       <c r="M4">
-        <v>0.9588642761298161</v>
+        <v>0.03084052201068666</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9667436425355618</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9097212814001523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8826062060974351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8167471793750281</v>
+        <v>0.8140823948803302</v>
       </c>
       <c r="C5">
-        <v>0.155296305693355</v>
+        <v>0.1588823864372415</v>
       </c>
       <c r="D5">
-        <v>0.06221332093805643</v>
+        <v>0.06337568199379717</v>
       </c>
       <c r="E5">
-        <v>1.006017310206005</v>
+        <v>1.006437887961269</v>
       </c>
       <c r="F5">
-        <v>0.3116399744270808</v>
+        <v>0.3036110441451711</v>
       </c>
       <c r="G5">
-        <v>0.2235731774227219</v>
+        <v>0.1987655447814944</v>
       </c>
       <c r="H5">
-        <v>0.003560153043359326</v>
+        <v>0.003593541174258141</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.231258355573253</v>
+        <v>0.2616628776504157</v>
       </c>
       <c r="K5">
-        <v>0.1917995148067142</v>
+        <v>0.1824841733505824</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1238499230426768</v>
       </c>
       <c r="M5">
-        <v>0.9222280518779939</v>
+        <v>0.03116849182233938</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9292510354901822</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9066705658374161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8809451912038497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8111873611713065</v>
+        <v>0.8087020629804442</v>
       </c>
       <c r="C6">
-        <v>0.1544291129168585</v>
+        <v>0.1577983929935556</v>
       </c>
       <c r="D6">
-        <v>0.06183400676994921</v>
+        <v>0.06296589305853928</v>
       </c>
       <c r="E6">
-        <v>0.9990008462211364</v>
+        <v>0.9994479387407722</v>
       </c>
       <c r="F6">
-        <v>0.3110048177799314</v>
+        <v>0.3030670978489596</v>
       </c>
       <c r="G6">
-        <v>0.2232831567436548</v>
+        <v>0.1985707390833085</v>
       </c>
       <c r="H6">
-        <v>0.00348267127261348</v>
+        <v>0.003517889018859188</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2313284935604685</v>
+        <v>0.2616785559165251</v>
       </c>
       <c r="K6">
-        <v>0.1920684656081075</v>
+        <v>0.1827727084302033</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1241091538065024</v>
       </c>
       <c r="M6">
-        <v>0.9161418179172074</v>
+        <v>0.03123046290301179</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.923023503691411</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9061894727345958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8806897193664156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8497641544339558</v>
+        <v>0.8461298448320917</v>
       </c>
       <c r="C7">
-        <v>0.1604468882919576</v>
+        <v>0.1651204039555694</v>
       </c>
       <c r="D7">
-        <v>0.06446465995315975</v>
+        <v>0.06594384942801668</v>
       </c>
       <c r="E7">
-        <v>1.047708357341406</v>
+        <v>1.047936839880464</v>
       </c>
       <c r="F7">
-        <v>0.3154632624215097</v>
+        <v>0.3061966052663863</v>
       </c>
       <c r="G7">
-        <v>0.2253390691681219</v>
+        <v>0.2020242103178305</v>
       </c>
       <c r="H7">
-        <v>0.004034359148033628</v>
+        <v>0.004053307288954699</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2308700432228079</v>
+        <v>0.2583672751836659</v>
       </c>
       <c r="K7">
-        <v>0.1902365401694297</v>
+        <v>0.1805114572265403</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1221713861836999</v>
       </c>
       <c r="M7">
-        <v>0.9583703722504708</v>
+        <v>0.03078593355245385</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.966020229321316</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9096784171568686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8805214594156467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019677737264146</v>
+        <v>1.010531398262344</v>
       </c>
       <c r="C8">
-        <v>0.1869711487953509</v>
+        <v>0.1980475565407573</v>
       </c>
       <c r="D8">
-        <v>0.07602057730814948</v>
+        <v>0.07878926810681719</v>
       </c>
       <c r="E8">
-        <v>1.262888321832406</v>
+        <v>1.262146100183159</v>
       </c>
       <c r="F8">
-        <v>0.3364224048673421</v>
+        <v>0.3224897164153262</v>
       </c>
       <c r="G8">
-        <v>0.2355203028875863</v>
+        <v>0.214055917346208</v>
       </c>
       <c r="H8">
-        <v>0.006834900155962387</v>
+        <v>0.006761611899838371</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2295707777929579</v>
+        <v>0.2511461941987108</v>
       </c>
       <c r="K8">
-        <v>0.1830436952969112</v>
+        <v>0.1718497857131904</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1145659172166784</v>
       </c>
       <c r="M8">
-        <v>1.144348810548053</v>
+        <v>0.03000229159435985</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.155962622815991</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9289249017231924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8872379078589745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.352163922054757</v>
+        <v>1.330899190316416</v>
       </c>
       <c r="C9">
-        <v>0.2389394656041191</v>
+        <v>0.2641456892827563</v>
       </c>
       <c r="D9">
-        <v>0.09851359588326147</v>
+        <v>0.1034309751665461</v>
       </c>
       <c r="E9">
-        <v>1.686826109182974</v>
+        <v>1.683952549576233</v>
       </c>
       <c r="F9">
-        <v>0.3826844345235045</v>
+        <v>0.3611313951905615</v>
       </c>
       <c r="G9">
-        <v>0.2599627312249879</v>
+        <v>0.2343394353839088</v>
       </c>
       <c r="H9">
-        <v>0.01386931012520376</v>
+        <v>0.01352069505990233</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2298407338657569</v>
+        <v>0.2497510937492891</v>
       </c>
       <c r="K9">
-        <v>0.1724203780371809</v>
+        <v>0.158606191530497</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1021727992648618</v>
       </c>
       <c r="M9">
-        <v>1.508196883898478</v>
+        <v>0.03280948919539206</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.528732441106428</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9820022193389661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9202257488068284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.596742040985731</v>
+        <v>1.567039642891643</v>
       </c>
       <c r="C10">
-        <v>0.2759090838488163</v>
+        <v>0.3099713118254215</v>
       </c>
       <c r="D10">
-        <v>0.1162324617959456</v>
+        <v>0.1235835431992456</v>
       </c>
       <c r="E10">
-        <v>1.899948922963219</v>
+        <v>1.895203756358185</v>
       </c>
       <c r="F10">
-        <v>0.4142011276801583</v>
+        <v>0.3831233315738274</v>
       </c>
       <c r="G10">
-        <v>0.2753674092962726</v>
+        <v>0.2595840650719765</v>
       </c>
       <c r="H10">
-        <v>0.01963967060738359</v>
+        <v>0.01900135064348918</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2291345315535978</v>
+        <v>0.2306554137063443</v>
       </c>
       <c r="K10">
-        <v>0.1644480996868154</v>
+        <v>0.1472419931631244</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09301022683549398</v>
       </c>
       <c r="M10">
-        <v>1.773851418825956</v>
+        <v>0.03608271615602732</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.799269087809705</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.013649146452337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9257836284445347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.710843233087303</v>
+        <v>1.682625391142807</v>
       </c>
       <c r="C11">
-        <v>0.2819362971477801</v>
+        <v>0.3115730653543949</v>
       </c>
       <c r="D11">
-        <v>0.13588293226438</v>
+        <v>0.1455146935977325</v>
       </c>
       <c r="E11">
-        <v>1.220956779593052</v>
+        <v>1.216612520635422</v>
       </c>
       <c r="F11">
-        <v>0.3769868832229193</v>
+        <v>0.3412094710842766</v>
       </c>
       <c r="G11">
-        <v>0.2349953199671475</v>
+        <v>0.2478117163339419</v>
       </c>
       <c r="H11">
-        <v>0.03543276832092346</v>
+        <v>0.03475812027837932</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2054141612663969</v>
+        <v>0.1835782958994017</v>
       </c>
       <c r="K11">
-        <v>0.1404358026138723</v>
+        <v>0.1244500709797922</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08325107459706427</v>
       </c>
       <c r="M11">
-        <v>1.880725925775039</v>
+        <v>0.02993917799799029</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.901636407171139</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8785330542209238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7816595145481813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.756003963256148</v>
+        <v>1.730548803627073</v>
       </c>
       <c r="C12">
-        <v>0.2793211274912437</v>
+        <v>0.304180953241854</v>
       </c>
       <c r="D12">
-        <v>0.1494642766398329</v>
+        <v>0.1600147605412445</v>
       </c>
       <c r="E12">
-        <v>0.7336369717109079</v>
+        <v>0.7300689538333245</v>
       </c>
       <c r="F12">
-        <v>0.3399157167656881</v>
+        <v>0.304918753218999</v>
       </c>
       <c r="G12">
-        <v>0.1999360880250052</v>
+        <v>0.2248561180560884</v>
       </c>
       <c r="H12">
-        <v>0.07178227632334</v>
+        <v>0.0711397759939274</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1863440195346584</v>
+        <v>0.1626280034178542</v>
       </c>
       <c r="K12">
-        <v>0.1233214271950143</v>
+        <v>0.1101139697247877</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07808885318232761</v>
       </c>
       <c r="M12">
-        <v>1.915140148094565</v>
+        <v>0.0247053840053546</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.931841314793047</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7643086585962067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6737021016386109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.750303131104346</v>
+        <v>1.728393637533287</v>
       </c>
       <c r="C13">
-        <v>0.2699259328320665</v>
+        <v>0.2900586370023177</v>
       </c>
       <c r="D13">
-        <v>0.1589983796415879</v>
+        <v>0.1688859103989131</v>
       </c>
       <c r="E13">
-        <v>0.3655866991745711</v>
+        <v>0.3629585555585422</v>
       </c>
       <c r="F13">
-        <v>0.300716069700762</v>
+        <v>0.2716458439337472</v>
       </c>
       <c r="G13">
-        <v>0.1668130218957629</v>
+        <v>0.188267363054031</v>
       </c>
       <c r="H13">
-        <v>0.12531864177204</v>
+        <v>0.1247586919132857</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1696280501185115</v>
+        <v>0.1566920311121471</v>
       </c>
       <c r="K13">
-        <v>0.1102956435278664</v>
+        <v>0.1011048617911197</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07544931386944764</v>
       </c>
       <c r="M13">
-        <v>1.89547340947226</v>
+        <v>0.02017213018722153</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.908569745967583</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6590357983481852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5879719961834837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.723312516022474</v>
+        <v>1.704215685170311</v>
       </c>
       <c r="C14">
-        <v>0.2603554812348818</v>
+        <v>0.2772068771459573</v>
       </c>
       <c r="D14">
-        <v>0.1638375641503842</v>
+        <v>0.1724994202755568</v>
       </c>
       <c r="E14">
-        <v>0.1801707065377869</v>
+        <v>0.178175214953626</v>
       </c>
       <c r="F14">
-        <v>0.2726951652493597</v>
+        <v>0.2496104057478092</v>
       </c>
       <c r="G14">
-        <v>0.1449833939014837</v>
+        <v>0.1586409947773859</v>
       </c>
       <c r="H14">
-        <v>0.1732525382525125</v>
+        <v>0.172764805818943</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1591717133409105</v>
+        <v>0.1571858463363611</v>
       </c>
       <c r="K14">
-        <v>0.1032494710260394</v>
+        <v>0.09705097213385017</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07451574500877545</v>
       </c>
       <c r="M14">
-        <v>1.857328102885361</v>
+        <v>0.01744029906382849</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.868151571682716</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.590790119472075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5374298245484255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.705806123137705</v>
+        <v>1.687564633144319</v>
       </c>
       <c r="C15">
-        <v>0.2565826894962981</v>
+        <v>0.2725991260397507</v>
       </c>
       <c r="D15">
-        <v>0.1640298317359878</v>
+        <v>0.1720731326104925</v>
       </c>
       <c r="E15">
-        <v>0.1440187743379155</v>
+        <v>0.1421984730791372</v>
       </c>
       <c r="F15">
-        <v>0.2653227048600897</v>
+        <v>0.244512139573132</v>
       </c>
       <c r="G15">
-        <v>0.1398053148271075</v>
+        <v>0.1495108102066851</v>
       </c>
       <c r="H15">
-        <v>0.1852951500980282</v>
+        <v>0.1848363732066076</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1570254659556056</v>
+        <v>0.1592893420155583</v>
       </c>
       <c r="K15">
-        <v>0.1022005157420587</v>
+        <v>0.09685325691333979</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07461451294475507</v>
       </c>
       <c r="M15">
-        <v>1.83647461793538</v>
+        <v>0.01687944942723085</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.846855460016371</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5752816748218379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5280851500017292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.601283242373484</v>
+        <v>1.584826450965096</v>
       </c>
       <c r="C16">
-        <v>0.2428413428169875</v>
+        <v>0.2581470172762579</v>
       </c>
       <c r="D16">
-        <v>0.1540464249213613</v>
+        <v>0.1595051047307265</v>
       </c>
       <c r="E16">
-        <v>0.1410726513606946</v>
+        <v>0.1396039333515162</v>
       </c>
       <c r="F16">
-        <v>0.2598467459055982</v>
+        <v>0.2462843612775245</v>
       </c>
       <c r="G16">
-        <v>0.1399369924183063</v>
+        <v>0.13248177142777</v>
       </c>
       <c r="H16">
-        <v>0.1708181687809116</v>
+        <v>0.170477227510986</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1605331724918102</v>
+        <v>0.1795844925117009</v>
       </c>
       <c r="K16">
-        <v>0.1077810321924382</v>
+        <v>0.1038608607101406</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07777818824268756</v>
       </c>
       <c r="M16">
-        <v>1.726197035921757</v>
+        <v>0.01749807013986171</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.737364591486738</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5827157271558292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5528696591999136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.535635068943776</v>
+        <v>1.519254032415972</v>
       </c>
       <c r="C17">
-        <v>0.2373474088741006</v>
+        <v>0.2534935258651814</v>
       </c>
       <c r="D17">
-        <v>0.1438500443304633</v>
+        <v>0.1483477005194516</v>
       </c>
       <c r="E17">
-        <v>0.2237856372171123</v>
+        <v>0.2223357329020104</v>
       </c>
       <c r="F17">
-        <v>0.2704904166843463</v>
+        <v>0.2588652731476486</v>
       </c>
       <c r="G17">
-        <v>0.1514999612688896</v>
+        <v>0.1362312919549424</v>
       </c>
       <c r="H17">
-        <v>0.1323871099059346</v>
+        <v>0.1320958050966823</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1687827530809543</v>
+        <v>0.1956434170790757</v>
       </c>
       <c r="K17">
-        <v>0.1158155465428656</v>
+        <v>0.1115526443522086</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08108578209178319</v>
       </c>
       <c r="M17">
-        <v>1.661996787090118</v>
+        <v>0.01925406853044276</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.674601323756093</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6243951285699296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.598150350819779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.495997865937539</v>
+        <v>1.477997770609448</v>
       </c>
       <c r="C18">
-        <v>0.2383867387973027</v>
+        <v>0.2573087311452724</v>
       </c>
       <c r="D18">
-        <v>0.132585322648012</v>
+        <v>0.1369674585526184</v>
       </c>
       <c r="E18">
-        <v>0.4524216334755806</v>
+        <v>0.4507055099106267</v>
       </c>
       <c r="F18">
-        <v>0.2967647410457701</v>
+        <v>0.2839388955058411</v>
       </c>
       <c r="G18">
-        <v>0.1753534429653527</v>
+        <v>0.154759007769087</v>
       </c>
       <c r="H18">
-        <v>0.08012100117614551</v>
+        <v>0.07983201912411886</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1824646505029506</v>
+        <v>0.2120998278182853</v>
       </c>
       <c r="K18">
-        <v>0.1275704829589053</v>
+        <v>0.1216122989925612</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08524906232762497</v>
       </c>
       <c r="M18">
-        <v>1.630134857037916</v>
+        <v>0.02240532849597798</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.645361101192691</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7035697124749021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6723962009152729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.480375308845112</v>
+        <v>1.459400280362956</v>
       </c>
       <c r="C19">
-        <v>0.2447851661158467</v>
+        <v>0.2681319354893361</v>
       </c>
       <c r="D19">
-        <v>0.1216308244432298</v>
+        <v>0.1263627253144648</v>
       </c>
       <c r="E19">
-        <v>0.8788943409590928</v>
+        <v>0.8765968111032123</v>
       </c>
       <c r="F19">
-        <v>0.3349475508027595</v>
+        <v>0.3187337229785285</v>
       </c>
       <c r="G19">
-        <v>0.209404898070801</v>
+        <v>0.184236021640757</v>
       </c>
       <c r="H19">
-        <v>0.03701966868329265</v>
+        <v>0.03668554235792953</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2002976762439985</v>
+        <v>0.2294505674948013</v>
       </c>
       <c r="K19">
-        <v>0.142653900608849</v>
+        <v>0.1338443972727816</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0901089529399357</v>
       </c>
       <c r="M19">
-        <v>1.626858677960172</v>
+        <v>0.02687657981729963</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.645621568971819</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8131180867779051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7706370877077973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.532518364362517</v>
+        <v>1.50469882362583</v>
       </c>
       <c r="C20">
-        <v>0.2661479223914398</v>
+        <v>0.2986292357605862</v>
       </c>
       <c r="D20">
-        <v>0.1116331022520853</v>
+        <v>0.1178205915269928</v>
       </c>
       <c r="E20">
-        <v>1.839689621474889</v>
+        <v>1.835574454134971</v>
       </c>
       <c r="F20">
-        <v>0.4054023060647935</v>
+        <v>0.3793194756767662</v>
       </c>
       <c r="G20">
-        <v>0.2708463817247377</v>
+        <v>0.2448661286520775</v>
       </c>
       <c r="H20">
-        <v>0.0180023707324537</v>
+        <v>0.01746192378551736</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2290604644435916</v>
+        <v>0.2456426416610284</v>
       </c>
       <c r="K20">
-        <v>0.1662555913175829</v>
+        <v>0.1509167484714098</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09560267725335336</v>
       </c>
       <c r="M20">
-        <v>1.704020718473629</v>
+        <v>0.03540193521859614</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.728938270392149</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.003788463083737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9301153523162071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.719901993846577</v>
+        <v>1.68677302433025</v>
       </c>
       <c r="C21">
-        <v>0.2964858959287824</v>
+        <v>0.3327560358985693</v>
       </c>
       <c r="D21">
-        <v>0.1232467330524969</v>
+        <v>0.1341654143921147</v>
       </c>
       <c r="E21">
-        <v>2.159840967417892</v>
+        <v>2.153289080563667</v>
       </c>
       <c r="F21">
-        <v>0.4404340145381553</v>
+        <v>0.3928686942971993</v>
       </c>
       <c r="G21">
-        <v>0.2927550860650143</v>
+        <v>0.3167019845272989</v>
       </c>
       <c r="H21">
-        <v>0.0237445042711375</v>
+        <v>0.02283768766176619</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2335846433848374</v>
+        <v>0.1888061843135205</v>
       </c>
       <c r="K21">
-        <v>0.1649532936344968</v>
+        <v>0.1410887260699738</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08851141812811569</v>
       </c>
       <c r="M21">
-        <v>1.910536927127765</v>
+        <v>0.03794344189007859</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.935724603613892</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.060069697980339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9242291303355472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.842671166107863</v>
+        <v>1.806429344337687</v>
       </c>
       <c r="C22">
-        <v>0.3157092679025482</v>
+        <v>0.3537528224424875</v>
       </c>
       <c r="D22">
-        <v>0.1314753262188049</v>
+        <v>0.1457955355618736</v>
       </c>
       <c r="E22">
-        <v>2.318673910787041</v>
+        <v>2.310506335379486</v>
       </c>
       <c r="F22">
-        <v>0.4610458494364451</v>
+        <v>0.3985346339575457</v>
       </c>
       <c r="G22">
-        <v>0.304884140543308</v>
+        <v>0.3689872298876935</v>
       </c>
       <c r="H22">
-        <v>0.02748949078786644</v>
+        <v>0.026322239534736</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2355187247352148</v>
+        <v>0.1582550138746193</v>
       </c>
       <c r="K22">
-        <v>0.1633199745608529</v>
+        <v>0.1337689774396544</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08384614978674243</v>
       </c>
       <c r="M22">
-        <v>2.04484214478498</v>
+        <v>0.0393810276098332</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.069562632855394</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.09005910002017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9113856690394329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.777128835031561</v>
+        <v>1.742242838137287</v>
       </c>
       <c r="C23">
-        <v>0.3054459370474092</v>
+        <v>0.3431410468476201</v>
       </c>
       <c r="D23">
-        <v>0.1270840169559904</v>
+        <v>0.1391842834361796</v>
       </c>
       <c r="E23">
-        <v>2.233822453412728</v>
+        <v>2.226602290949955</v>
       </c>
       <c r="F23">
-        <v>0.449963672861692</v>
+        <v>0.3972425044099879</v>
       </c>
       <c r="G23">
-        <v>0.298339045955629</v>
+        <v>0.3341422419145914</v>
       </c>
       <c r="H23">
-        <v>0.02546321642538496</v>
+        <v>0.02444828335204852</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2344463531919416</v>
+        <v>0.1782676361300588</v>
       </c>
       <c r="K23">
-        <v>0.1641416641564284</v>
+        <v>0.1382925756335176</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08650265414610381</v>
       </c>
       <c r="M23">
-        <v>1.973141993023745</v>
+        <v>0.0388777890956522</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.99870870844228</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.073817959767894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9232661525271908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.529239842451432</v>
+        <v>1.501142270236443</v>
       </c>
       <c r="C24">
-        <v>0.266642454513601</v>
+        <v>0.2995933445102708</v>
       </c>
       <c r="D24">
-        <v>0.1104401573879557</v>
+        <v>0.1166189693501565</v>
       </c>
       <c r="E24">
-        <v>1.914072683724015</v>
+        <v>1.909860254139915</v>
       </c>
       <c r="F24">
-        <v>0.4097107490972149</v>
+        <v>0.3833195453534231</v>
       </c>
       <c r="G24">
-        <v>0.2750631551319884</v>
+        <v>0.2482435383781194</v>
       </c>
       <c r="H24">
-        <v>0.0183661942021871</v>
+        <v>0.0178171743424147</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2312395851194111</v>
+        <v>0.2481139215515142</v>
       </c>
       <c r="K24">
-        <v>0.1683190676862019</v>
+        <v>0.1526265374340703</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09629955706561688</v>
       </c>
       <c r="M24">
-        <v>1.701944168059214</v>
+        <v>0.03599722745926037</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.727211182264199</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.017291675473388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9424424904271405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.262247688876414</v>
+        <v>1.244215810989175</v>
       </c>
       <c r="C25">
-        <v>0.2248784330171247</v>
+        <v>0.2464853812681298</v>
       </c>
       <c r="D25">
-        <v>0.09244431101401318</v>
+        <v>0.09656980008679739</v>
       </c>
       <c r="E25">
-        <v>1.571816737520422</v>
+        <v>1.56961121050233</v>
       </c>
       <c r="F25">
-        <v>0.3695626437454962</v>
+        <v>0.3511516164439854</v>
       </c>
       <c r="G25">
-        <v>0.2528222302526117</v>
+        <v>0.2253580326881703</v>
       </c>
       <c r="H25">
-        <v>0.01177879407177335</v>
+        <v>0.0115228345394171</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2294445579960112</v>
+        <v>0.2543068278399403</v>
       </c>
       <c r="K25">
-        <v>0.1748939750940828</v>
+        <v>0.1622611673721561</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1054815815875596</v>
       </c>
       <c r="M25">
-        <v>1.409807498207243</v>
+        <v>0.03172138437394878</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.428214780949475</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9658530127399558</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.912736201659115</v>
       </c>
     </row>
   </sheetData>
